--- a/13/2/2/Activos consolidados del tesoro 2007 a 2021 - Mensual.xlsx
+++ b/13/2/2/Activos consolidados del tesoro 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t>Serie</t>
   </si>
@@ -563,6 +563,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -920,7 +923,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K173"/>
+  <dimension ref="A1:K174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5550,6 +5553,41 @@
         <v>321</v>
       </c>
     </row>
+    <row r="174" spans="1:11">
+      <c r="A174" t="s">
+        <v>183</v>
+      </c>
+      <c r="B174">
+        <v>11470</v>
+      </c>
+      <c r="C174">
+        <v>3991</v>
+      </c>
+      <c r="D174">
+        <v>7479</v>
+      </c>
+      <c r="E174">
+        <v>9953</v>
+      </c>
+      <c r="F174">
+        <v>3075</v>
+      </c>
+      <c r="G174">
+        <v>6878</v>
+      </c>
+      <c r="H174">
+        <v>202</v>
+      </c>
+      <c r="I174">
+        <v>202</v>
+      </c>
+      <c r="J174">
+        <v>619</v>
+      </c>
+      <c r="K174">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/13/2/2/Activos consolidados del tesoro 2007 a 2021 - Mensual.xlsx
+++ b/13/2/2/Activos consolidados del tesoro 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
   <si>
     <t>Serie</t>
   </si>
@@ -566,6 +566,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -923,7 +926,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K174"/>
+  <dimension ref="A1:K175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5588,6 +5591,41 @@
         <v>300</v>
       </c>
     </row>
+    <row r="175" spans="1:11">
+      <c r="A175" t="s">
+        <v>184</v>
+      </c>
+      <c r="B175">
+        <v>10496</v>
+      </c>
+      <c r="C175">
+        <v>2976</v>
+      </c>
+      <c r="D175">
+        <v>7521</v>
+      </c>
+      <c r="E175">
+        <v>7790</v>
+      </c>
+      <c r="F175">
+        <v>3447</v>
+      </c>
+      <c r="G175">
+        <v>4342</v>
+      </c>
+      <c r="H175">
+        <v>202</v>
+      </c>
+      <c r="I175">
+        <v>202</v>
+      </c>
+      <c r="J175">
+        <v>602</v>
+      </c>
+      <c r="K175">
+        <v>279</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/13/2/2/Activos consolidados del tesoro 2007 a 2021 - Mensual.xlsx
+++ b/13/2/2/Activos consolidados del tesoro 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
   <si>
     <t>Serie</t>
   </si>
@@ -569,6 +569,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -926,7 +929,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K175"/>
+  <dimension ref="A1:K176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5626,6 +5629,41 @@
         <v>279</v>
       </c>
     </row>
+    <row r="176" spans="1:11">
+      <c r="A176" t="s">
+        <v>185</v>
+      </c>
+      <c r="B176">
+        <v>9813</v>
+      </c>
+      <c r="C176">
+        <v>2482</v>
+      </c>
+      <c r="D176">
+        <v>7331</v>
+      </c>
+      <c r="E176">
+        <v>7353</v>
+      </c>
+      <c r="F176">
+        <v>3307</v>
+      </c>
+      <c r="G176">
+        <v>4046</v>
+      </c>
+      <c r="H176">
+        <v>202</v>
+      </c>
+      <c r="I176">
+        <v>202</v>
+      </c>
+      <c r="J176">
+        <v>584</v>
+      </c>
+      <c r="K176">
+        <v>257</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
